--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -298,6 +298,15 @@
   </x:si>
   <x:si>
     <x:t>Ezz El Din Ahmed Farouk Ahmed Robashy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على عبدالرحمن محمد ابراهيم حمزه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Abdul Rahman Mohamed Ibrahim Hamza</x:t>
   </x:si>
   <x:si>
     <x:t>1210256</x:t>
@@ -566,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -866,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1915,7 +1924,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45920.7718626157</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1947,7 +1956,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4144535069</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1979,7 +1988,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45906.4144535069</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2011,7 +2020,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4157449884</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2043,7 +2052,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4335031597</x:v>
+        <x:v>45909.4157449884</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2075,7 +2084,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45909.4335031597</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2107,7 +2116,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4537393519</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2139,7 +2148,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45909.4537393519</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2171,7 +2180,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45909.6072289005</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2203,7 +2212,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2235,7 +2244,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2267,7 +2276,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2299,7 +2308,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2331,7 +2340,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.4167242708</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2363,7 +2372,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45909.4167242708</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2395,7 +2404,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2427,7 +2436,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2444,6 +2453,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -129,7 +129,7 @@
     <x:t>جمانه محمد جلال كامل محمد توفيق</x:t>
   </x:si>
   <x:si>
-    <x:t>Jumana mohamed galal kamel</x:t>
+    <x:t>Jumana Mohammed Jalal Kamel Mohammed Tawfiq</x:t>
   </x:si>
   <x:si>
     <x:t>1240214</x:t>
@@ -361,15 +361,6 @@
   </x:si>
   <x:si>
     <x:t>kareem sameh sabry mohamed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240253</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ليلى محمد محمود محمد محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layla Mohamed Mahmoud Mohamed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240131</x:t>
@@ -575,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -875,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -884,7 +875,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.090625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="43.610625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -2148,7 +2139,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4537393519</x:v>
+        <x:v>45909.6072289005</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2180,7 +2171,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2212,7 +2203,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2244,7 +2235,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2276,7 +2267,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2308,7 +2299,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2340,7 +2331,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45909.4167242708</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2372,7 +2363,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4167242708</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2404,7 +2395,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2436,7 +2427,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2453,38 +2444,6 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45907.6656088773</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -360,7 +360,7 @@
     <x:t>كريم سامح صبري محمد عبد الحليم</x:t>
   </x:si>
   <x:si>
-    <x:t>kareem sameh sabry mohamed</x:t>
+    <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
   </x:si>
   <x:si>
     <x:t>1240131</x:t>

--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -1787,7 +1787,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.6990350347</x:v>
+        <x:v>45928.2183115741</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>

--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>rawda emad khairy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ساندرا رافت بشاى سعد حنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sandra Rafaat</x:t>
   </x:si>
   <x:si>
     <x:t>1240226</x:t>
@@ -566,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -866,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1597,7 +1606,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.6961865741</x:v>
+        <x:v>45928.8592922106</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1629,7 +1638,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4159662384</x:v>
+        <x:v>45908.6961865741</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1661,7 +1670,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45909.4159662384</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1693,7 +1702,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4903921643</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1725,7 +1734,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4155710995</x:v>
+        <x:v>45909.4903921643</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1753,9 +1762,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45909.4155710995</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1778,16 +1789,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45928.2183115741</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1819,7 +1828,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.4162378472</x:v>
+        <x:v>45928.2183115741</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1851,7 +1860,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4144871528</x:v>
+        <x:v>45909.4162378472</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1883,7 +1892,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4160848032</x:v>
+        <x:v>45906.4144871528</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1915,7 +1924,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45920.7718626157</x:v>
+        <x:v>45906.4160848032</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1947,7 +1956,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45920.7718626157</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1979,7 +1988,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4144535069</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2011,7 +2020,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45906.4144535069</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2043,7 +2052,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4157449884</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2075,7 +2084,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4335031597</x:v>
+        <x:v>45909.4157449884</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2107,7 +2116,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45909.4335031597</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2139,7 +2148,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2171,7 +2180,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45909.6072289005</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2203,7 +2212,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2235,7 +2244,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2267,7 +2276,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2299,7 +2308,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2331,7 +2340,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.4167242708</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2363,7 +2372,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45909.4167242708</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2395,7 +2404,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2427,7 +2436,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2444,6 +2453,38 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250205</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد انور محمد على محمد صابر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Anwar Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240006</x:t>
@@ -575,7 +584,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -875,7 +884,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T50"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -966,7 +975,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.4155274306</x:v>
+        <x:v>45929.4897952199</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -998,7 +1007,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4145110764</x:v>
+        <x:v>45909.4155274306</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1030,7 +1039,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.5682872685</x:v>
+        <x:v>45906.4145110764</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1062,7 +1071,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45908.4159935185</x:v>
+        <x:v>45906.5682872685</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1094,7 +1103,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.556340162</x:v>
+        <x:v>45908.4159935185</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1126,7 +1135,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4149930903</x:v>
+        <x:v>45909.556340162</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1158,7 +1167,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45912.5271128125</x:v>
+        <x:v>45906.4149930903</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1190,7 +1199,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4146526273</x:v>
+        <x:v>45912.5271128125</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1222,7 +1231,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6652448264</x:v>
+        <x:v>45906.4146526273</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1254,7 +1263,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.5134636574</x:v>
+        <x:v>45907.6652448264</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1286,7 +1295,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6652035532</x:v>
+        <x:v>45909.5134636574</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1318,7 +1327,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.6332179051</x:v>
+        <x:v>45907.6652035532</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1350,7 +1359,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45916.5446955671</x:v>
+        <x:v>45909.6332179051</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1382,7 +1391,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4215917014</x:v>
+        <x:v>45916.5446955671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1414,7 +1423,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.0189690162</x:v>
+        <x:v>45909.4215917014</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1446,7 +1455,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4151528125</x:v>
+        <x:v>45915.0189690162</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1478,7 +1487,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.5105098727</x:v>
+        <x:v>45907.4151528125</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1510,7 +1519,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4297958333</x:v>
+        <x:v>45909.5105098727</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1542,7 +1551,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4180142708</x:v>
+        <x:v>45909.4297958333</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1574,7 +1583,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.4313456366</x:v>
+        <x:v>45909.4180142708</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1606,7 +1615,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45928.8592922106</x:v>
+        <x:v>45909.4313456366</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1638,7 +1647,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.6961865741</x:v>
+        <x:v>45928.8592922106</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1670,7 +1679,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4159662384</x:v>
+        <x:v>45908.6961865741</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1702,7 +1711,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4162835648</x:v>
+        <x:v>45909.4159662384</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1734,7 +1743,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4903921643</x:v>
+        <x:v>45908.4162835648</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1766,7 +1775,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.4155710995</x:v>
+        <x:v>45909.4903921643</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1794,9 +1803,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6671441782</x:v>
+        <x:v>45909.4155710995</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1819,16 +1830,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45928.2183115741</x:v>
+        <x:v>45907.6671441782</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1860,7 +1869,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.4162378472</x:v>
+        <x:v>45928.2183115741</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1892,7 +1901,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.4144871528</x:v>
+        <x:v>45909.4162378472</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1924,7 +1933,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4160848032</x:v>
+        <x:v>45906.4144871528</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1956,7 +1965,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45920.7718626157</x:v>
+        <x:v>45906.4160848032</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1988,7 +1997,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45920.7718626157</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2020,7 +2029,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4144535069</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2052,7 +2061,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45906.4144535069</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2084,7 +2093,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4157449884</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2116,7 +2125,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4335031597</x:v>
+        <x:v>45909.4157449884</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2148,7 +2157,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45909.4335031597</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2180,7 +2189,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2212,7 +2221,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45909.6072289005</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2244,7 +2253,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2276,7 +2285,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2308,7 +2317,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2340,7 +2349,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2372,7 +2381,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4167242708</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2404,7 +2413,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45909.4167242708</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2436,7 +2445,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2468,7 +2477,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6656088773</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2485,6 +2494,38 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45907.6656088773</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -280,15 +280,6 @@
   </x:si>
   <x:si>
     <x:t>شهد هشام ابراهيم المنير</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220066</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن محمد محمد مهدي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman mohamed mohamed mahdy</x:t>
   </x:si>
   <x:si>
     <x:t>1240087</x:t>
@@ -584,7 +575,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E50" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -884,7 +875,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T50"/>
+  <x:dimension ref="A1:T49"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1869,7 +1860,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45928.2183115741</x:v>
+        <x:v>45909.4162378472</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1901,7 +1892,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.4162378472</x:v>
+        <x:v>45906.4144871528</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1933,7 +1924,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4144871528</x:v>
+        <x:v>45906.4160848032</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1965,7 +1956,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4160848032</x:v>
+        <x:v>45920.7718626157</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1997,7 +1988,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45920.7718626157</x:v>
+        <x:v>45906.8656453356</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2029,7 +2020,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.8656453356</x:v>
+        <x:v>45906.4144535069</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2061,7 +2052,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4144535069</x:v>
+        <x:v>45909.4151439468</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2093,7 +2084,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4151439468</x:v>
+        <x:v>45909.4157449884</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2125,7 +2116,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4157449884</x:v>
+        <x:v>45909.4335031597</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2157,7 +2148,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45909.4335031597</x:v>
+        <x:v>45907.6651370023</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2189,7 +2180,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45907.6651370023</x:v>
+        <x:v>45909.6072289005</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2221,7 +2212,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2253,7 +2244,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2285,7 +2276,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2317,7 +2308,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2349,7 +2340,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2381,7 +2372,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45909.4167242708</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2413,7 +2404,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45909.4167242708</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2445,7 +2436,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2477,7 +2468,7 @@
         <x:v>147</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2494,38 +2485,6 @@
       <x:c r="R49" s="2" t="s"/>
       <x:c r="S49" s="2" t="s"/>
       <x:c r="T49" s="2" t="s"/>
-    </x:row>
-    <x:row r="50" spans="1:20">
-      <x:c r="A50" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="C50" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="D50" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="E50" s="3">
-        <x:v>45907.6656088773</x:v>
-      </x:c>
-      <x:c r="F50" s="2" t="s"/>
-      <x:c r="G50" s="2" t="s"/>
-      <x:c r="H50" s="2" t="s"/>
-      <x:c r="I50" s="2" t="s"/>
-      <x:c r="J50" s="2" t="s"/>
-      <x:c r="K50" s="2" t="s"/>
-      <x:c r="L50" s="2" t="s"/>
-      <x:c r="M50" s="2" t="s"/>
-      <x:c r="N50" s="2" t="s"/>
-      <x:c r="O50" s="2" t="s"/>
-      <x:c r="P50" s="2" t="s"/>
-      <x:c r="Q50" s="2" t="s"/>
-      <x:c r="R50" s="2" t="s"/>
-      <x:c r="S50" s="2" t="s"/>
-      <x:c r="T50" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -370,15 +370,6 @@
   </x:si>
   <x:si>
     <x:t>Karim Sameh Sabry Mohamed Abdel Halim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240131</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد احمد شعبان محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed ahmed shaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1200244</x:t>
@@ -575,7 +566,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -875,7 +866,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T49"/>
+  <x:dimension ref="A1:T48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2180,7 +2171,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.6072289005</x:v>
+        <x:v>45906.4157328704</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2212,7 +2203,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45906.4157328704</x:v>
+        <x:v>45909.4210538194</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2244,7 +2235,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45909.4210538194</x:v>
+        <x:v>45906.4321676736</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2276,7 +2267,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45906.4321676736</x:v>
+        <x:v>45909.5791762384</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2308,7 +2299,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45909.5791762384</x:v>
+        <x:v>45907.6650974537</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2340,7 +2331,7 @@
         <x:v>135</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6650974537</x:v>
+        <x:v>45909.4167242708</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2372,7 +2363,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4167242708</x:v>
+        <x:v>45906.4144760417</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2404,7 +2395,7 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45906.4144760417</x:v>
+        <x:v>45906.4155979977</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2436,7 +2427,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45906.4155979977</x:v>
+        <x:v>45907.6656088773</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2453,38 +2444,6 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
-    </x:row>
-    <x:row r="49" spans="1:20">
-      <x:c r="A49" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="D49" s="2" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="E49" s="3">
-        <x:v>45907.6656088773</x:v>
-      </x:c>
-      <x:c r="F49" s="2" t="s"/>
-      <x:c r="G49" s="2" t="s"/>
-      <x:c r="H49" s="2" t="s"/>
-      <x:c r="I49" s="2" t="s"/>
-      <x:c r="J49" s="2" t="s"/>
-      <x:c r="K49" s="2" t="s"/>
-      <x:c r="L49" s="2" t="s"/>
-      <x:c r="M49" s="2" t="s"/>
-      <x:c r="N49" s="2" t="s"/>
-      <x:c r="O49" s="2" t="s"/>
-      <x:c r="P49" s="2" t="s"/>
-      <x:c r="Q49" s="2" t="s"/>
-      <x:c r="R49" s="2" t="s"/>
-      <x:c r="S49" s="2" t="s"/>
-      <x:c r="T49" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS005_Lecture-35048.xlsx
+++ b/downloaded_files/MTHS005_Lecture-35048.xlsx
@@ -33,13 +33,13 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
-    <x:t>4250205</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد انور محمد على محمد صابر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Anwar Mohammed</x:t>
+    <x:t>1113848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد ابراهيم محمد محمود</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Ibrahim Mohammed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1240006</x:t>
@@ -876,7 +876,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="31.090625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="46.410625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="17.240625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -957,7 +957,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45929.4897952199</x:v>
+        <x:v>45943.5780837153</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
